--- a/健康档案字段/基础字段/健康档案字段 v5.0.xlsx
+++ b/健康档案字段/基础字段/健康档案字段 v5.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="患者档案" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="293">
   <si>
     <t>字段名</t>
     <rPh sb="0" eb="1">
@@ -1264,29 +1264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按周算（）</t>
-    <rPh sb="0" eb="1">
-      <t>an</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考04年</t>
-    <rPh sb="0" eb="1">
-      <t>can'ko</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>nian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:高血压（1-3级）;
 2:年龄＞55（男性），＞65（女性);
 3:吸烟;
@@ -1415,28 +1392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:5次/周~6次/周; 2:3次/周~4次d/周; 3:1次/周~2次/周; 4:每天;</t>
-    <rPh sb="3" eb="4">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1649,6 +1604,13 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>zhen'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次</t>
+    <rPh sb="0" eb="1">
+      <t>ci</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1838,7 +1800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2038,6 +2000,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2336,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2620,9 +2585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2712,7 +2677,7 @@
       <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="86" t="s">
         <v>232</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2732,7 +2697,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="10" t="s">
         <v>148</v>
       </c>
@@ -2764,7 +2729,7 @@
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="86" t="s">
         <v>230</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2782,7 +2747,7 @@
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="11" t="s">
         <v>102</v>
       </c>
@@ -2800,7 +2765,7 @@
       <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="15" t="s">
         <v>220</v>
       </c>
@@ -2810,7 +2775,7 @@
       <c r="E10" s="60"/>
     </row>
     <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="86" t="s">
         <v>231</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2828,29 +2793,25 @@
       <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>246</v>
-      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="11" t="s">
         <v>245</v>
       </c>
@@ -2862,8 +2823,8 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
-        <v>257</v>
+      <c r="A14" s="86" t="s">
+        <v>255</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>105</v>
@@ -2882,7 +2843,7 @@
       <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="11" t="s">
         <v>94</v>
       </c>
@@ -2900,7 +2861,7 @@
       <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="11" t="s">
         <v>111</v>
       </c>
@@ -2917,10 +2878,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>235</v>
@@ -3060,17 +3021,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3097,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3154,7 +3115,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+      <c r="A3" s="87"/>
       <c r="B3" s="17" t="s">
         <v>121</v>
       </c>
@@ -3182,7 +3143,7 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
+      <c r="A4" s="87"/>
       <c r="B4" s="17" t="s">
         <v>120</v>
       </c>
@@ -3210,7 +3171,7 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="87"/>
       <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
@@ -3238,9 +3199,9 @@
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
+      <c r="A6" s="87"/>
       <c r="B6" s="78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="5"/>
@@ -3248,7 +3209,7 @@
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="87" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -3266,7 +3227,7 @@
       <c r="J7" s="77"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+      <c r="A8" s="87"/>
       <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
@@ -3293,9 +3254,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
+      <c r="A9" s="87"/>
       <c r="B9" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3306,7 +3267,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
+      <c r="A10" s="87"/>
       <c r="B10" s="14" t="s">
         <v>208</v>
       </c>
@@ -3331,7 +3292,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
+      <c r="A11" s="87"/>
       <c r="B11" s="14" t="s">
         <v>209</v>
       </c>
@@ -3358,7 +3319,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
+      <c r="A12" s="87"/>
       <c r="B12" s="14" t="s">
         <v>210</v>
       </c>
@@ -3385,7 +3346,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="87" t="s">
         <v>129</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -3403,7 +3364,7 @@
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
+      <c r="A14" s="87"/>
       <c r="B14" s="17" t="s">
         <v>211</v>
       </c>
@@ -3430,7 +3391,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
+      <c r="A15" s="87"/>
       <c r="B15" s="17" t="s">
         <v>212</v>
       </c>
@@ -3457,7 +3418,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="87" t="s">
         <v>130</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -3475,7 +3436,7 @@
       <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="87"/>
       <c r="B17" s="17" t="s">
         <v>213</v>
       </c>
@@ -3502,7 +3463,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="79" t="s">
         <v>214</v>
       </c>
@@ -3519,7 +3480,7 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="87" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -3537,7 +3498,7 @@
       <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="17" t="s">
         <v>215</v>
       </c>
@@ -3564,7 +3525,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="17" t="s">
         <v>216</v>
       </c>
@@ -3591,7 +3552,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="17" t="s">
         <v>217</v>
       </c>
@@ -3618,7 +3579,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="80" t="s">
         <v>218</v>
       </c>
@@ -3643,7 +3604,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="87" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -3661,9 +3622,9 @@
       <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3673,9 +3634,9 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3685,11 +3646,11 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="88" t="s">
         <v>239</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>237</v>
@@ -3700,9 +3661,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>237</v>
@@ -3713,9 +3674,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>237</v>
@@ -3726,18 +3687,18 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30"/>
       <c r="G30" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="17" t="s">
         <v>225</v>
       </c>
@@ -3753,11 +3714,11 @@
       <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
-        <v>268</v>
+      <c r="A32" s="87" t="s">
+        <v>265</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
@@ -3769,51 +3730,51 @@
       <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
       <c r="F33" s="28"/>
       <c r="G33" s="83" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="65"/>
       <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="87"/>
+      <c r="B36" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" s="83" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="87"/>
+      <c r="B37" s="13" t="s">
         <v>272</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
-      <c r="B36" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="G36" s="83" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
-      <c r="B37" s="13" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3886,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3982,8 +3943,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
-        <v>282</v>
+      <c r="A2" s="90" t="s">
+        <v>279</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>198</v>
@@ -3993,7 +3954,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="90"/>
       <c r="B3" s="17" t="s">
         <v>199</v>
       </c>
@@ -4005,7 +3966,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="17" t="s">
         <v>174</v>
       </c>
@@ -4016,12 +3977,12 @@
         <v>192</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
-        <v>283</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>198</v>
@@ -4031,7 +3992,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="17" t="s">
         <v>199</v>
       </c>
@@ -4043,7 +4004,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="17" t="s">
         <v>174</v>
       </c>
@@ -4054,12 +4015,12 @@
         <v>192</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
-        <v>282</v>
+      <c r="A8" s="90" t="s">
+        <v>279</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>198</v>
@@ -4069,7 +4030,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="17" t="s">
         <v>199</v>
       </c>
@@ -4081,7 +4042,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="17" t="s">
         <v>174</v>
       </c>
@@ -4092,12 +4053,12 @@
         <v>192</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
-        <v>284</v>
+      <c r="A11" s="90" t="s">
+        <v>281</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>198</v>
@@ -4107,7 +4068,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="17" t="s">
         <v>199</v>
       </c>
@@ -4119,7 +4080,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="17" t="s">
         <v>174</v>
       </c>
@@ -4130,12 +4091,12 @@
         <v>192</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
-        <v>285</v>
+      <c r="A14" s="90" t="s">
+        <v>282</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>198</v>
@@ -4145,7 +4106,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="17" t="s">
         <v>199</v>
       </c>
@@ -4157,7 +4118,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="17" t="s">
         <v>174</v>
       </c>
@@ -4168,12 +4129,12 @@
         <v>192</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="89" t="s">
-        <v>286</v>
+      <c r="A17" s="90" t="s">
+        <v>283</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>198</v>
@@ -4183,7 +4144,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="17" t="s">
         <v>199</v>
       </c>
@@ -4195,7 +4156,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="17" t="s">
         <v>174</v>
       </c>
@@ -4206,12 +4167,12 @@
         <v>192</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="89" t="s">
-        <v>287</v>
+      <c r="A20" s="90" t="s">
+        <v>284</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>198</v>
@@ -4221,7 +4182,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="17" t="s">
         <v>199</v>
       </c>
@@ -4233,7 +4194,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="17" t="s">
         <v>174</v>
       </c>
@@ -4244,12 +4205,12 @@
         <v>192</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
-        <v>288</v>
+      <c r="A23" s="90" t="s">
+        <v>285</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>198</v>
@@ -4259,7 +4220,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="88"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="17" t="s">
         <v>199</v>
       </c>
@@ -4271,7 +4232,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="17" t="s">
         <v>174</v>
       </c>
@@ -4282,12 +4243,12 @@
         <v>192</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="89" t="s">
-        <v>289</v>
+      <c r="A26" s="90" t="s">
+        <v>286</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>174</v>
@@ -4297,7 +4258,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="17" t="s">
         <v>199</v>
       </c>
@@ -4309,7 +4270,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="17" t="s">
         <v>174</v>
       </c>
@@ -4320,12 +4281,12 @@
         <v>192</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="88" t="s">
-        <v>259</v>
+      <c r="A29" s="89" t="s">
+        <v>257</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>171</v>
@@ -4335,7 +4296,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="17" t="s">
         <v>179</v>
       </c>
@@ -4347,7 +4308,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="17" t="s">
         <v>177</v>
       </c>
@@ -4359,7 +4320,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="17" t="s">
         <v>180</v>
       </c>
@@ -4369,7 +4330,7 @@
       <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="88"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="17" t="s">
         <v>176</v>
       </c>
@@ -4381,7 +4342,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="89" t="s">
         <v>170</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -4395,7 +4356,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="88"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="17" t="s">
         <v>186</v>
       </c>
@@ -4404,7 +4365,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="17" t="s">
         <v>183</v>
       </c>
@@ -4413,7 +4374,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="88"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="17" t="s">
         <v>182</v>
       </c>
@@ -4422,7 +4383,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="17" t="s">
         <v>184</v>
       </c>
@@ -4431,7 +4392,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="88"/>
+      <c r="A39" s="89"/>
       <c r="B39" s="56" t="s">
         <v>207</v>
       </c>
@@ -4443,8 +4404,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="88" t="s">
-        <v>276</v>
+      <c r="A40" s="89" t="s">
+        <v>273</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>172</v>
@@ -4454,7 +4415,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="88"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="17" t="s">
         <v>188</v>
       </c>
@@ -4466,7 +4427,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="17" t="s">
         <v>189</v>
       </c>
@@ -4481,48 +4442,48 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="88"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D43" s="84"/>
       <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="88"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D44" s="84"/>
       <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="88"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D45" s="84"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="88"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D46" s="84"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="88"/>
+      <c r="A47" s="89"/>
       <c r="B47" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D47" s="84"/>
     </row>
     <row r="48" spans="1:5" ht="108" x14ac:dyDescent="0.3">
-      <c r="A48" s="88" t="s">
-        <v>277</v>
+      <c r="A48" s="89" t="s">
+        <v>274</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D48" s="71" t="s">
         <v>47</v>
@@ -4532,9 +4493,9 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="88"/>
+      <c r="A49" s="89"/>
       <c r="B49" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D49" s="71" t="s">
         <v>110</v>
@@ -4608,10 +4569,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="42"/>
